--- a/51EQ/src/main/resources/excel/Cash_Daily_Template.xlsx
+++ b/51EQ/src/main/resources/excel/Cash_Daily_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="840" windowWidth="20200" windowHeight="10720"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$W$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$7</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>EQ+我行我素    销售一览表</t>
   </si>
@@ -147,68 +147,64 @@
   <si>
     <t>代金卷
 价值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${report.couponCashValue}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${totalReport.couponCashValue}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>销售额
 合计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${report.prePayCashAmt}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${totalReport.prePayCashAmt}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${report.prePayCardAmt}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${totalReport.prePayCardAmt}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>班前余额
 （现金）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金卡充值
 现金</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>充值充值
 刷卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>商场汇报金额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${totalReport.reportAmt}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${report.reportAmt}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当班销售额
 (普通 / 支付宝 / 金卡[消费/返利] / 代金卷)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -241,7 +237,7 @@
       </rPr>
       <t>(${report.saleAmt+report.goldCardAmt+report.rebateAmt+report.couponValue})</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -263,15 +259,27 @@
       </rPr>
       <t>${totalReport.goldCardAmt} / ${totalReport.rebateAmt} / ${totalReport.couponValue} (${totalReport.saleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue})</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${totalReport.saleAmt+totalReport.zfbSaleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>${report.saleAmt+report.zfbSaleAmt+report.goldCardAmt+report.rebateAmt+report.couponValue}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>督导</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.reportAmt}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.mngUser}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -279,9 +287,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -319,28 +327,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,14 +486,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -508,10 +506,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -521,10 +519,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -536,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,32 +558,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1000,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1018,36 +1019,37 @@
     <col min="16" max="16" width="10.1640625" customWidth="1"/>
     <col min="17" max="17" width="49.33203125" customWidth="1"/>
     <col min="18" max="19" width="10.1640625" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25">
+    <row r="1" spans="1:24" ht="25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="30">
+    <row r="2" spans="1:24" ht="30">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" s="16" t="s">
         <v>39</v>
@@ -1105,18 +1107,21 @@
       <c r="S2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="33"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="W2" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="X2" s="31" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -1143,7 +1148,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1193,24 +1198,27 @@
         <v>30</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" s="19" t="s">
         <v>40</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="34"/>
+      <c r="U4" s="35"/>
       <c r="V4" s="20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W4" s="14"/>
+      <c r="X4" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
@@ -1237,15 +1245,15 @@
       <c r="V5" s="10"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:24">
+      <c r="A6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="23" t="s">
         <v>44</v>
       </c>
@@ -1271,22 +1279,22 @@
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
+        <v>55</v>
+      </c>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
       <c r="V6" s="23" t="s">
         <v>51</v>
       </c>
       <c r="W6" s="15"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -1299,12 +1307,12 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="T6:U6"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" scale="34" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1318,7 +1326,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
@@ -1337,7 +1345,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>

--- a/51EQ/src/main/resources/excel/Cash_Daily_Template.xlsx
+++ b/51EQ/src/main/resources/excel/Cash_Daily_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13820"/>
+    <workbookView xWindow="-35620" yWindow="6100" windowWidth="29160" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,83 +202,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>督导</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.reportAmt}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.mngUser}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>当班销售额
-(普通 / 支付宝 / 金卡[消费/返利] / 代金卷)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">${report.saleAmt} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/ ${report.zfbSaleAmt} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/ ${report.goldCardAmt} / ${report.rebateAmt} / ${report.couponValue} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(${report.saleAmt+report.goldCardAmt+report.rebateAmt+report.couponValue})</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">${totalReport.saleAmt} / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">${totalReport.zfbSaleAmt} / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>${totalReport.goldCardAmt} / ${totalReport.rebateAmt} / ${totalReport.couponValue} (${totalReport.saleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue})</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${totalReport.saleAmt+totalReport.zfbSaleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${report.saleAmt+report.zfbSaleAmt+report.goldCardAmt+report.rebateAmt+report.couponValue}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>督导</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${report.reportAmt}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${report.mngUser}</t>
+(普通 / 支付宝 / 微信 / 金卡[消费/返利] / 代金卷)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.saleAmt+report.zfbSaleAmt+report.wxSaleAmt+report.goldCardAmt+report.rebateAmt+report.couponValue}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${totalReport.saleAmt+totalReport.zfbSaleAmt+totalReport.wxSaleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.saleAmt} / ${report.zfbSaleAmt} / ${report.wxSaleAmt} /${report.goldCardAmt} / ${report.rebateAmt} / ${report.couponValue}</t>
+  </si>
+  <si>
+    <t>${totalReport.saleAmt} / ${totalReport.zfbSaleAmt} / ${totalReport.wxSaleAmt} / ${totalReport.goldCardAmt} / ${totalReport.rebateAmt} / ${totalReport.couponValue}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -331,8 +283,20 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +354,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,9 +552,6 @@
     <xf numFmtId="176" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,6 +574,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,7 +983,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1017,7 +996,7 @@
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="16" max="16" width="10.1640625" customWidth="1"/>
-    <col min="17" max="17" width="49.33203125" customWidth="1"/>
+    <col min="17" max="17" width="51.5" customWidth="1"/>
     <col min="18" max="19" width="10.1640625" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
@@ -1025,25 +1004,25 @@
     <row r="1" spans="1:24" ht="25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
@@ -1099,7 +1078,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R2" s="16" t="s">
         <v>39</v>
@@ -1107,18 +1086,18 @@
       <c r="S2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="34"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="W2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="31" t="s">
-        <v>57</v>
+      <c r="X2" s="30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1197,8 +1176,8 @@
       <c r="P4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="30" t="s">
-        <v>53</v>
+      <c r="Q4" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="R4" s="19" t="s">
         <v>40</v>
@@ -1206,16 +1185,16 @@
       <c r="S4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="35"/>
+      <c r="U4" s="34"/>
       <c r="V4" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W4" s="14"/>
       <c r="X4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1246,14 +1225,14 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="23" t="s">
         <v>44</v>
       </c>
@@ -1278,17 +1257,17 @@
         <v>38</v>
       </c>
       <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>54</v>
+      <c r="Q6" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="R6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
       <c r="V6" s="23" t="s">
         <v>51</v>
       </c>
